--- a/xlsx/apiSOM.xlsx
+++ b/xlsx/apiSOM.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,99 +411,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Creating and training the SOM model</v>
+        <v>Predicting the result using trained model</v>
       </c>
       <c r="C2" t="str">
         <v>POST</v>
       </c>
       <c r="D2" t="str">
-        <v>/api/v1.0/lvq/train</v>
+        <v>/api/v1.0/lvq/predict</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-  "model_id": "String",
-  "params": {
-    "n_rows": "int",
-    "n_cols": "int",
-    "learning_rate": "double",
-    "decay_rate": "double",
-    "neighborhood": "String",
-    "sigma": "double",
-    "sigma_decay_rate": "double",
-    "weights_initialization": "String",
-    "num_iteration": "int",
-    "epoch_size": "int"
-  },
-  "train": {
-    "data": "2D_array",
-    "target": "1D_array"
-  }
-}</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-  "model_id": "model-1",
-  "params": {
-    "n_rows": 9,
-    "n_cols": 9,
-    "learning_rate": 0.5,
-    "decay_rate": 1,
-    "neighborhood": "bubble",
-    "sigma": 2,
-    "sigma_decay_rate": 1,
-    "weights_initialization": "random",
-    "num_iteration": 10000,
-    "epoch_size": 4000
-  },
-  "train": {
-    "data": {
-      "0": {
-        "0": 1,
-        "1": 2,
-        "2": 3
-      },
-      "1": {
-        "0": 2,
-        "1": 3,
-        "2": 4
-      }
-    },
-    "target": {
-      "0": 1,
-      "1": 2,
-      "2": 3
-    }
-  }
-}</v>
-      </c>
-      <c r="G2" t="str">
-        <v>{}</v>
-      </c>
-      <c r="H2" t="str" xml:space="preserve">
-        <v xml:space="preserve">neighborhood = 'bubble'||'gaussian'||'None'.  
-weights_initialization = 'random'||'sample'||'pca'</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Predicting the result using trained model</v>
-      </c>
-      <c r="C3" t="str">
-        <v>POST</v>
-      </c>
-      <c r="D3" t="str">
-        <v>/api/v1.0/lvq/predict</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">{
   "model_id": "String",
   "data": "2D_array"
 }</v>
       </c>
-      <c r="F3" t="str" xml:space="preserve">
+      <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">{
   "model_id": "model-1",
   "data": {
@@ -520,16 +442,16 @@
   }
 }</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G2" t="str">
         <v>{}</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>